--- a/Data_file/import_product_expens.xlsx
+++ b/Data_file/import_product_expens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Desktop\ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4094,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data_file/import_product_expens.xlsx
+++ b/Data_file/import_product_expens.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1245">
   <si>
     <t>categ_id</t>
   </si>
@@ -3755,25 +3755,10 @@
     <t>แกลลอน</t>
   </si>
   <si>
-    <t>ถุง</t>
-  </si>
-  <si>
-    <t>กระสอบ</t>
-  </si>
-  <si>
-    <t>ขวด</t>
-  </si>
-  <si>
-    <t>หลอด</t>
-  </si>
-  <si>
-    <t>แพค</t>
-  </si>
-  <si>
-    <t>เม็ด</t>
-  </si>
-  <si>
     <t>Jobs</t>
+  </si>
+  <si>
+    <t>แพ๊ค</t>
   </si>
 </sst>
 </file>
@@ -4094,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="F128" workbookViewId="0">
+      <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6014,7 +5999,7 @@
         <v>808</v>
       </c>
       <c r="H81" t="s">
-        <v>1243</v>
+        <v>25</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -6474,7 +6459,7 @@
         <v>828</v>
       </c>
       <c r="H101" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="L101" t="b">
         <v>1</v>
@@ -7348,7 +7333,7 @@
         <v>866</v>
       </c>
       <c r="H139" t="s">
-        <v>1245</v>
+        <v>25</v>
       </c>
       <c r="L139" t="b">
         <v>1</v>
@@ -7371,7 +7356,7 @@
         <v>867</v>
       </c>
       <c r="H140" t="s">
-        <v>1246</v>
+        <v>25</v>
       </c>
       <c r="L140" t="b">
         <v>1</v>
@@ -7440,7 +7425,7 @@
         <v>870</v>
       </c>
       <c r="H143" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="L143" t="b">
         <v>1</v>
@@ -7532,7 +7517,7 @@
         <v>874</v>
       </c>
       <c r="H147" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="L147" t="b">
         <v>1</v>
@@ -8015,7 +8000,7 @@
         <v>895</v>
       </c>
       <c r="H168" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="L168" t="b">
         <v>1</v>

--- a/Data_file/import_product_expens.xlsx
+++ b/Data_file/import_product_expens.xlsx
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F128" workbookViewId="0">
-      <selection activeCell="J143" sqref="J143"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data_file/import_product_expens.xlsx
+++ b/Data_file/import_product_expens.xlsx
@@ -991,7 +991,7 @@
     <t>สำลีก้อน</t>
   </si>
   <si>
-    <t>แพ๊ค</t>
+    <t>แพ็ค</t>
   </si>
   <si>
     <t>HSE1043</t>
@@ -2881,7 +2881,7 @@
     <t>ค่าเช่ารถบริการเทคนิค</t>
   </si>
   <si>
-    <t>เดือน</t>
+    <t>Months</t>
   </si>
   <si>
     <t>All / 6-EXPENSE / ค่าใช้จ่ายการตลาด / ค่าโฆษณา / Online : ค่าผลิต ,ค่าสื่อ</t>
@@ -3775,12 +3775,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3793,16 +3799,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3819,13 +3825,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3845,6 +3851,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -4044,17 +4051,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4081,10 +4088,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4323,12 +4330,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -4605,7 +4612,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4632,10 +4639,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4995,9 +5002,7 @@
       <c r="L2" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M2" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" t="b" s="4">
         <v>1</v>
@@ -5037,9 +5042,7 @@
       <c r="L3" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M3" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" t="b" s="4">
         <v>1</v>
@@ -5079,9 +5082,7 @@
       <c r="L4" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M4" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" t="b" s="4">
         <v>1</v>
@@ -5121,9 +5122,7 @@
       <c r="L5" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M5" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" t="b" s="4">
         <v>1</v>
@@ -5163,9 +5162,7 @@
       <c r="L6" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M6" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" t="b" s="4">
         <v>1</v>
@@ -5205,9 +5202,7 @@
       <c r="L7" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M7" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" t="b" s="4">
         <v>1</v>
@@ -5247,9 +5242,7 @@
       <c r="L8" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M8" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" t="b" s="4">
         <v>1</v>
@@ -5289,9 +5282,7 @@
       <c r="L9" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M9" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" t="b" s="4">
         <v>1</v>
@@ -5331,9 +5322,7 @@
       <c r="L10" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M10" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" t="b" s="4">
         <v>1</v>
@@ -5373,9 +5362,7 @@
       <c r="L11" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M11" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" t="b" s="4">
         <v>1</v>
@@ -5415,9 +5402,7 @@
       <c r="L12" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M12" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" t="b" s="4">
         <v>1</v>
@@ -5457,9 +5442,7 @@
       <c r="L13" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M13" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" t="b" s="4">
         <v>1</v>
@@ -5499,9 +5482,7 @@
       <c r="L14" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M14" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" t="b" s="4">
         <v>1</v>
@@ -5541,9 +5522,7 @@
       <c r="L15" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M15" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" t="b" s="4">
         <v>1</v>
@@ -5583,9 +5562,7 @@
       <c r="L16" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M16" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" t="b" s="4">
         <v>1</v>
@@ -5625,9 +5602,7 @@
       <c r="L17" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M17" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" t="b" s="4">
         <v>1</v>
@@ -5667,9 +5642,7 @@
       <c r="L18" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M18" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" t="b" s="4">
         <v>1</v>
@@ -5709,9 +5682,7 @@
       <c r="L19" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M19" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" t="b" s="4">
         <v>1</v>
@@ -5751,9 +5722,7 @@
       <c r="L20" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M20" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" t="b" s="4">
         <v>1</v>
@@ -5793,9 +5762,7 @@
       <c r="L21" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M21" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" t="b" s="4">
         <v>1</v>
@@ -5835,9 +5802,7 @@
       <c r="L22" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M22" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" t="b" s="4">
         <v>1</v>
@@ -5877,9 +5842,7 @@
       <c r="L23" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M23" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" t="b" s="4">
         <v>1</v>
@@ -5919,9 +5882,7 @@
       <c r="L24" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M24" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" t="b" s="4">
         <v>1</v>
@@ -5961,9 +5922,7 @@
       <c r="L25" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M25" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" t="b" s="4">
         <v>1</v>
@@ -6003,9 +5962,7 @@
       <c r="L26" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M26" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" t="b" s="4">
         <v>1</v>
@@ -6045,9 +6002,7 @@
       <c r="L27" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M27" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" t="b" s="4">
         <v>1</v>
@@ -6087,9 +6042,7 @@
       <c r="L28" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M28" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" t="b" s="4">
         <v>1</v>
@@ -6129,9 +6082,7 @@
       <c r="L29" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M29" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" t="b" s="4">
         <v>1</v>
@@ -6171,9 +6122,7 @@
       <c r="L30" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M30" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" t="b" s="4">
         <v>1</v>
@@ -6213,9 +6162,7 @@
       <c r="L31" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M31" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" t="b" s="4">
         <v>1</v>
@@ -6255,9 +6202,7 @@
       <c r="L32" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M32" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" t="b" s="4">
         <v>1</v>
@@ -6297,9 +6242,7 @@
       <c r="L33" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M33" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" t="b" s="4">
         <v>1</v>
@@ -6339,9 +6282,7 @@
       <c r="L34" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M34" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" t="b" s="4">
         <v>1</v>
@@ -6381,9 +6322,7 @@
       <c r="L35" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M35" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" t="b" s="4">
         <v>1</v>
@@ -6423,9 +6362,7 @@
       <c r="L36" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M36" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" t="b" s="4">
         <v>1</v>
@@ -6465,9 +6402,7 @@
       <c r="L37" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M37" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" t="b" s="4">
         <v>1</v>
@@ -6507,9 +6442,7 @@
       <c r="L38" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M38" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" t="b" s="4">
         <v>1</v>
@@ -6549,9 +6482,7 @@
       <c r="L39" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M39" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" t="b" s="4">
         <v>1</v>
@@ -6591,9 +6522,7 @@
       <c r="L40" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M40" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" t="b" s="4">
         <v>1</v>
@@ -6633,9 +6562,7 @@
       <c r="L41" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M41" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" t="b" s="4">
         <v>1</v>
@@ -6675,9 +6602,7 @@
       <c r="L42" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M42" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" t="b" s="4">
         <v>1</v>
@@ -6717,9 +6642,7 @@
       <c r="L43" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M43" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" t="b" s="4">
         <v>1</v>
@@ -6759,9 +6682,7 @@
       <c r="L44" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M44" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" t="b" s="4">
         <v>1</v>
@@ -6801,9 +6722,7 @@
       <c r="L45" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M45" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" t="b" s="4">
         <v>1</v>
@@ -6843,9 +6762,7 @@
       <c r="L46" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M46" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" t="b" s="4">
         <v>1</v>
@@ -6885,9 +6802,7 @@
       <c r="L47" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M47" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" t="b" s="4">
         <v>1</v>
@@ -6927,9 +6842,7 @@
       <c r="L48" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M48" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" t="b" s="4">
         <v>1</v>
@@ -6969,9 +6882,7 @@
       <c r="L49" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M49" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" t="b" s="4">
         <v>1</v>
@@ -7011,9 +6922,7 @@
       <c r="L50" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M50" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" t="b" s="4">
         <v>1</v>
@@ -7053,9 +6962,7 @@
       <c r="L51" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M51" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" t="b" s="4">
         <v>1</v>
@@ -7095,9 +7002,7 @@
       <c r="L52" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M52" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" t="b" s="4">
         <v>1</v>
@@ -7137,9 +7042,7 @@
       <c r="L53" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M53" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" t="b" s="4">
         <v>1</v>
@@ -7179,9 +7082,7 @@
       <c r="L54" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M54" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" t="b" s="4">
         <v>1</v>
@@ -7221,9 +7122,7 @@
       <c r="L55" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M55" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" t="b" s="4">
         <v>1</v>
@@ -7263,9 +7162,7 @@
       <c r="L56" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M56" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" t="b" s="4">
         <v>1</v>
@@ -7305,9 +7202,7 @@
       <c r="L57" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M57" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" t="b" s="4">
         <v>1</v>
@@ -7347,9 +7242,7 @@
       <c r="L58" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M58" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" t="b" s="4">
         <v>1</v>
@@ -7389,9 +7282,7 @@
       <c r="L59" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M59" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" t="b" s="4">
         <v>1</v>
@@ -7431,9 +7322,7 @@
       <c r="L60" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M60" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" t="b" s="4">
         <v>1</v>
@@ -7473,9 +7362,7 @@
       <c r="L61" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M61" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" t="b" s="4">
         <v>1</v>
@@ -7515,9 +7402,7 @@
       <c r="L62" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M62" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" t="b" s="4">
         <v>1</v>
@@ -7557,9 +7442,7 @@
       <c r="L63" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M63" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" t="b" s="4">
         <v>1</v>
@@ -7599,9 +7482,7 @@
       <c r="L64" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M64" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" t="b" s="4">
         <v>1</v>
@@ -7641,9 +7522,7 @@
       <c r="L65" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M65" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" t="b" s="4">
         <v>1</v>
@@ -7683,9 +7562,7 @@
       <c r="L66" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M66" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" t="b" s="4">
         <v>1</v>
@@ -7725,9 +7602,7 @@
       <c r="L67" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M67" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" t="b" s="4">
         <v>1</v>
@@ -7767,9 +7642,7 @@
       <c r="L68" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M68" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" t="b" s="4">
         <v>1</v>
@@ -7809,9 +7682,7 @@
       <c r="L69" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M69" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" t="b" s="4">
         <v>1</v>
@@ -7851,9 +7722,7 @@
       <c r="L70" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M70" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" t="b" s="4">
         <v>1</v>
@@ -7893,9 +7762,7 @@
       <c r="L71" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M71" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" t="b" s="4">
         <v>1</v>
@@ -7935,9 +7802,7 @@
       <c r="L72" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M72" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" t="b" s="4">
         <v>1</v>
@@ -7977,9 +7842,7 @@
       <c r="L73" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M73" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" t="b" s="4">
         <v>1</v>
@@ -8019,9 +7882,7 @@
       <c r="L74" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M74" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" t="b" s="4">
         <v>1</v>
@@ -8061,9 +7922,7 @@
       <c r="L75" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M75" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" t="b" s="4">
         <v>1</v>
@@ -8103,9 +7962,7 @@
       <c r="L76" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M76" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" t="b" s="4">
         <v>1</v>
@@ -8145,9 +8002,7 @@
       <c r="L77" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M77" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" t="b" s="4">
         <v>1</v>
@@ -8187,9 +8042,7 @@
       <c r="L78" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M78" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" t="b" s="4">
         <v>1</v>
@@ -8229,9 +8082,7 @@
       <c r="L79" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M79" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" t="b" s="4">
         <v>1</v>
@@ -8271,9 +8122,7 @@
       <c r="L80" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M80" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" t="b" s="4">
         <v>1</v>
@@ -8313,9 +8162,7 @@
       <c r="L81" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M81" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" t="b" s="4">
         <v>1</v>
@@ -8355,9 +8202,7 @@
       <c r="L82" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M82" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" t="b" s="4">
         <v>1</v>
@@ -8397,9 +8242,7 @@
       <c r="L83" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M83" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" t="b" s="4">
         <v>1</v>
@@ -8439,9 +8282,7 @@
       <c r="L84" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M84" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" t="b" s="4">
         <v>1</v>
@@ -8481,9 +8322,7 @@
       <c r="L85" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M85" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" t="b" s="4">
         <v>1</v>
@@ -8523,9 +8362,7 @@
       <c r="L86" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M86" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" t="b" s="4">
         <v>1</v>
@@ -8565,9 +8402,7 @@
       <c r="L87" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M87" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" t="b" s="4">
         <v>1</v>
@@ -8607,9 +8442,7 @@
       <c r="L88" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M88" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" t="b" s="4">
         <v>1</v>
@@ -8649,9 +8482,7 @@
       <c r="L89" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M89" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" t="b" s="4">
         <v>1</v>
@@ -8691,9 +8522,7 @@
       <c r="L90" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M90" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" t="b" s="4">
         <v>1</v>
@@ -8733,9 +8562,7 @@
       <c r="L91" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M91" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" t="b" s="4">
         <v>1</v>
@@ -8775,9 +8602,7 @@
       <c r="L92" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M92" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" t="b" s="4">
         <v>1</v>
@@ -8817,9 +8642,7 @@
       <c r="L93" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M93" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" t="b" s="4">
         <v>1</v>
@@ -8859,9 +8682,7 @@
       <c r="L94" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M94" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" t="b" s="4">
         <v>1</v>
@@ -8901,9 +8722,7 @@
       <c r="L95" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M95" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" t="b" s="4">
         <v>1</v>
@@ -8943,9 +8762,7 @@
       <c r="L96" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M96" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" t="b" s="4">
         <v>1</v>
@@ -8985,9 +8802,7 @@
       <c r="L97" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M97" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" t="b" s="4">
         <v>1</v>
@@ -9027,9 +8842,7 @@
       <c r="L98" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M98" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" t="b" s="4">
         <v>1</v>
@@ -9069,9 +8882,7 @@
       <c r="L99" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M99" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" t="b" s="4">
         <v>1</v>
@@ -9111,9 +8922,7 @@
       <c r="L100" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M100" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" t="b" s="4">
         <v>1</v>
@@ -9153,9 +8962,7 @@
       <c r="L101" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M101" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" t="b" s="4">
         <v>1</v>
@@ -9195,9 +9002,7 @@
       <c r="L102" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M102" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" t="b" s="4">
         <v>1</v>
@@ -9237,9 +9042,7 @@
       <c r="L103" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M103" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" t="b" s="4">
         <v>1</v>
@@ -9279,9 +9082,7 @@
       <c r="L104" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M104" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" t="b" s="4">
         <v>1</v>
@@ -9321,9 +9122,7 @@
       <c r="L105" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M105" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" t="b" s="4">
         <v>1</v>
@@ -9363,9 +9162,7 @@
       <c r="L106" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M106" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" t="b" s="4">
         <v>1</v>
@@ -9405,9 +9202,7 @@
       <c r="L107" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M107" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" t="b" s="4">
         <v>1</v>
@@ -9447,9 +9242,7 @@
       <c r="L108" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M108" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" t="b" s="4">
         <v>1</v>
@@ -9489,9 +9282,7 @@
       <c r="L109" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M109" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" t="b" s="4">
         <v>1</v>
@@ -9531,9 +9322,7 @@
       <c r="L110" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M110" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" t="b" s="4">
         <v>1</v>
@@ -9573,9 +9362,7 @@
       <c r="L111" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M111" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" t="b" s="4">
         <v>1</v>
@@ -9615,9 +9402,7 @@
       <c r="L112" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M112" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" t="b" s="4">
         <v>1</v>
@@ -9657,9 +9442,7 @@
       <c r="L113" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M113" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" t="b" s="4">
         <v>1</v>
@@ -9699,9 +9482,7 @@
       <c r="L114" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M114" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" t="b" s="4">
         <v>1</v>
@@ -9741,9 +9522,7 @@
       <c r="L115" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M115" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" t="b" s="4">
         <v>1</v>
@@ -9783,9 +9562,7 @@
       <c r="L116" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M116" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" t="b" s="4">
         <v>1</v>
@@ -9825,9 +9602,7 @@
       <c r="L117" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M117" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" t="b" s="4">
         <v>1</v>
@@ -9867,9 +9642,7 @@
       <c r="L118" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M118" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" t="b" s="4">
         <v>1</v>
@@ -9909,9 +9682,7 @@
       <c r="L119" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M119" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" t="b" s="4">
         <v>1</v>
@@ -9951,9 +9722,7 @@
       <c r="L120" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M120" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" t="b" s="4">
         <v>1</v>
@@ -9993,9 +9762,7 @@
       <c r="L121" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M121" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" t="b" s="4">
         <v>1</v>
@@ -10035,9 +9802,7 @@
       <c r="L122" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M122" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" t="b" s="4">
         <v>1</v>
@@ -10077,9 +9842,7 @@
       <c r="L123" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M123" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" t="b" s="4">
         <v>1</v>
@@ -10119,9 +9882,7 @@
       <c r="L124" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M124" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" t="b" s="4">
         <v>1</v>
@@ -10161,9 +9922,7 @@
       <c r="L125" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M125" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" t="b" s="4">
         <v>1</v>
@@ -10203,9 +9962,7 @@
       <c r="L126" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M126" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" t="b" s="4">
         <v>1</v>
@@ -10245,9 +10002,7 @@
       <c r="L127" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M127" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" t="b" s="4">
         <v>1</v>
@@ -10287,9 +10042,7 @@
       <c r="L128" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M128" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" t="b" s="4">
         <v>1</v>
@@ -10329,9 +10082,7 @@
       <c r="L129" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M129" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" t="b" s="4">
         <v>1</v>
@@ -10371,9 +10122,7 @@
       <c r="L130" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M130" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" t="b" s="4">
         <v>1</v>
@@ -10413,9 +10162,7 @@
       <c r="L131" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M131" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" t="b" s="4">
         <v>1</v>
@@ -10455,9 +10202,7 @@
       <c r="L132" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M132" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" t="b" s="4">
         <v>1</v>
@@ -10497,9 +10242,7 @@
       <c r="L133" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M133" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" t="b" s="4">
         <v>1</v>
@@ -10539,9 +10282,7 @@
       <c r="L134" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M134" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" t="b" s="4">
         <v>1</v>
@@ -10581,9 +10322,7 @@
       <c r="L135" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M135" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" t="b" s="4">
         <v>1</v>
@@ -10623,9 +10362,7 @@
       <c r="L136" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M136" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" t="b" s="4">
         <v>1</v>
@@ -10665,9 +10402,7 @@
       <c r="L137" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M137" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" t="b" s="4">
         <v>1</v>
@@ -10707,9 +10442,7 @@
       <c r="L138" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M138" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" t="b" s="4">
         <v>1</v>
@@ -10749,9 +10482,7 @@
       <c r="L139" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M139" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" t="b" s="4">
         <v>1</v>
@@ -10791,9 +10522,7 @@
       <c r="L140" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M140" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" t="b" s="4">
         <v>1</v>
@@ -10833,9 +10562,7 @@
       <c r="L141" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M141" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" t="b" s="4">
         <v>1</v>
@@ -10875,9 +10602,7 @@
       <c r="L142" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M142" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" t="b" s="4">
         <v>1</v>
@@ -10917,9 +10642,7 @@
       <c r="L143" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M143" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" t="b" s="4">
         <v>1</v>
@@ -10959,9 +10682,7 @@
       <c r="L144" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M144" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" t="b" s="4">
         <v>1</v>
@@ -11001,9 +10722,7 @@
       <c r="L145" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M145" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" t="b" s="4">
         <v>1</v>
@@ -11043,9 +10762,7 @@
       <c r="L146" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M146" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" t="b" s="4">
         <v>1</v>
@@ -11085,9 +10802,7 @@
       <c r="L147" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M147" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" t="b" s="4">
         <v>1</v>
@@ -11127,9 +10842,7 @@
       <c r="L148" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M148" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" t="b" s="4">
         <v>1</v>
@@ -11169,9 +10882,7 @@
       <c r="L149" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M149" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" t="b" s="4">
         <v>1</v>
@@ -11211,9 +10922,7 @@
       <c r="L150" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M150" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" t="b" s="4">
         <v>1</v>
@@ -11253,9 +10962,7 @@
       <c r="L151" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M151" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" t="b" s="4">
         <v>1</v>
@@ -11295,9 +11002,7 @@
       <c r="L152" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M152" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" t="b" s="4">
         <v>1</v>
@@ -11337,9 +11042,7 @@
       <c r="L153" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M153" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" t="b" s="4">
         <v>1</v>
@@ -11379,9 +11082,7 @@
       <c r="L154" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M154" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" t="b" s="4">
         <v>1</v>
@@ -11421,9 +11122,7 @@
       <c r="L155" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M155" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" t="b" s="4">
         <v>1</v>
@@ -11463,9 +11162,7 @@
       <c r="L156" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M156" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" t="b" s="4">
         <v>1</v>
@@ -11505,9 +11202,7 @@
       <c r="L157" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M157" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" t="b" s="4">
         <v>1</v>
@@ -11547,9 +11242,7 @@
       <c r="L158" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M158" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" t="b" s="4">
         <v>1</v>
@@ -11589,9 +11282,7 @@
       <c r="L159" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M159" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" t="b" s="4">
         <v>1</v>
@@ -11631,9 +11322,7 @@
       <c r="L160" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M160" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" t="b" s="4">
         <v>1</v>
@@ -11673,9 +11362,7 @@
       <c r="L161" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M161" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" t="b" s="4">
         <v>1</v>
@@ -11715,9 +11402,7 @@
       <c r="L162" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M162" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" t="b" s="4">
         <v>1</v>
@@ -11757,9 +11442,7 @@
       <c r="L163" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M163" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" t="b" s="4">
         <v>1</v>
@@ -11799,9 +11482,7 @@
       <c r="L164" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M164" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" t="b" s="4">
         <v>1</v>
@@ -11841,9 +11522,7 @@
       <c r="L165" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M165" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" t="b" s="4">
         <v>1</v>
@@ -11883,9 +11562,7 @@
       <c r="L166" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M166" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" t="b" s="4">
         <v>1</v>
@@ -11925,9 +11602,7 @@
       <c r="L167" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M167" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" t="b" s="4">
         <v>1</v>
@@ -11967,9 +11642,7 @@
       <c r="L168" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M168" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" t="b" s="4">
         <v>1</v>
@@ -12009,9 +11682,7 @@
       <c r="L169" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M169" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" t="b" s="4">
         <v>1</v>
@@ -12051,9 +11722,7 @@
       <c r="L170" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M170" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" t="b" s="4">
         <v>1</v>
@@ -12093,9 +11762,7 @@
       <c r="L171" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M171" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" t="b" s="4">
         <v>1</v>
@@ -12135,9 +11802,7 @@
       <c r="L172" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M172" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" t="b" s="4">
         <v>1</v>
@@ -12177,9 +11842,7 @@
       <c r="L173" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M173" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" t="b" s="4">
         <v>1</v>
@@ -12219,9 +11882,7 @@
       <c r="L174" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M174" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" t="b" s="4">
         <v>1</v>
@@ -12261,9 +11922,7 @@
       <c r="L175" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M175" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" t="b" s="4">
         <v>1</v>
@@ -12303,9 +11962,7 @@
       <c r="L176" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M176" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" t="b" s="4">
         <v>1</v>
@@ -12345,9 +12002,7 @@
       <c r="L177" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M177" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" t="b" s="4">
         <v>1</v>
@@ -12387,9 +12042,7 @@
       <c r="L178" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M178" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" t="b" s="4">
         <v>1</v>
@@ -12429,9 +12082,7 @@
       <c r="L179" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M179" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M179" s="3"/>
       <c r="N179" s="3"/>
       <c r="O179" t="b" s="4">
         <v>1</v>
@@ -12471,9 +12122,7 @@
       <c r="L180" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M180" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" t="b" s="4">
         <v>1</v>
@@ -12513,9 +12162,7 @@
       <c r="L181" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M181" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" t="b" s="4">
         <v>1</v>
@@ -12555,9 +12202,7 @@
       <c r="L182" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M182" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M182" s="3"/>
       <c r="N182" s="3"/>
       <c r="O182" t="b" s="4">
         <v>1</v>
@@ -12597,9 +12242,7 @@
       <c r="L183" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M183" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" t="b" s="4">
         <v>1</v>
@@ -12639,9 +12282,7 @@
       <c r="L184" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M184" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" t="b" s="4">
         <v>1</v>
@@ -12681,9 +12322,7 @@
       <c r="L185" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M185" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" t="b" s="4">
         <v>1</v>
@@ -12723,9 +12362,7 @@
       <c r="L186" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M186" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" t="b" s="4">
         <v>1</v>
@@ -12765,9 +12402,7 @@
       <c r="L187" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M187" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" t="b" s="4">
         <v>1</v>
@@ -12807,9 +12442,7 @@
       <c r="L188" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M188" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" t="b" s="4">
         <v>1</v>
@@ -12849,9 +12482,7 @@
       <c r="L189" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M189" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M189" s="3"/>
       <c r="N189" s="3"/>
       <c r="O189" t="b" s="4">
         <v>1</v>
@@ -12891,9 +12522,7 @@
       <c r="L190" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M190" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" t="b" s="4">
         <v>1</v>
@@ -12933,9 +12562,7 @@
       <c r="L191" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M191" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" t="b" s="4">
         <v>1</v>
@@ -12975,9 +12602,7 @@
       <c r="L192" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M192" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" t="b" s="4">
         <v>1</v>
@@ -13017,9 +12642,7 @@
       <c r="L193" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M193" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" t="b" s="4">
         <v>1</v>
@@ -13059,9 +12682,7 @@
       <c r="L194" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M194" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" t="b" s="4">
         <v>1</v>
@@ -13101,9 +12722,7 @@
       <c r="L195" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M195" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" t="b" s="4">
         <v>1</v>
@@ -13143,9 +12762,7 @@
       <c r="L196" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M196" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" t="b" s="4">
         <v>1</v>
@@ -13185,9 +12802,7 @@
       <c r="L197" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M197" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" t="b" s="4">
         <v>1</v>
@@ -13227,9 +12842,7 @@
       <c r="L198" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M198" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M198" s="3"/>
       <c r="N198" s="3"/>
       <c r="O198" t="b" s="4">
         <v>1</v>
@@ -13269,9 +12882,7 @@
       <c r="L199" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M199" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M199" s="3"/>
       <c r="N199" s="3"/>
       <c r="O199" t="b" s="4">
         <v>1</v>
@@ -13311,9 +12922,7 @@
       <c r="L200" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M200" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M200" s="3"/>
       <c r="N200" s="3"/>
       <c r="O200" t="b" s="4">
         <v>1</v>
@@ -13353,9 +12962,7 @@
       <c r="L201" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M201" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M201" s="3"/>
       <c r="N201" s="3"/>
       <c r="O201" t="b" s="4">
         <v>1</v>
@@ -13395,9 +13002,7 @@
       <c r="L202" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M202" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" t="b" s="4">
         <v>1</v>
@@ -13437,9 +13042,7 @@
       <c r="L203" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M203" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" t="b" s="4">
         <v>1</v>
@@ -13479,9 +13082,7 @@
       <c r="L204" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M204" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" t="b" s="4">
         <v>1</v>
@@ -13521,9 +13122,7 @@
       <c r="L205" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M205" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M205" s="3"/>
       <c r="N205" s="3"/>
       <c r="O205" t="b" s="4">
         <v>1</v>
@@ -13563,9 +13162,7 @@
       <c r="L206" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M206" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" t="b" s="4">
         <v>1</v>
@@ -13605,9 +13202,7 @@
       <c r="L207" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M207" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" t="b" s="4">
         <v>1</v>
@@ -13647,9 +13242,7 @@
       <c r="L208" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M208" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" t="b" s="4">
         <v>1</v>
@@ -13689,9 +13282,7 @@
       <c r="L209" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M209" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M209" s="3"/>
       <c r="N209" s="3"/>
       <c r="O209" t="b" s="4">
         <v>1</v>
@@ -13731,9 +13322,7 @@
       <c r="L210" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M210" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M210" s="3"/>
       <c r="N210" s="3"/>
       <c r="O210" t="b" s="4">
         <v>1</v>
@@ -13773,9 +13362,7 @@
       <c r="L211" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M211" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M211" s="3"/>
       <c r="N211" s="3"/>
       <c r="O211" t="b" s="4">
         <v>1</v>
@@ -13815,9 +13402,7 @@
       <c r="L212" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M212" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M212" s="3"/>
       <c r="N212" s="3"/>
       <c r="O212" t="b" s="4">
         <v>1</v>
@@ -13857,9 +13442,7 @@
       <c r="L213" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M213" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" t="b" s="4">
         <v>1</v>
@@ -13899,9 +13482,7 @@
       <c r="L214" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M214" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M214" s="3"/>
       <c r="N214" s="3"/>
       <c r="O214" t="b" s="4">
         <v>1</v>
@@ -13941,9 +13522,7 @@
       <c r="L215" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M215" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M215" s="3"/>
       <c r="N215" s="3"/>
       <c r="O215" t="b" s="4">
         <v>1</v>
@@ -13983,9 +13562,7 @@
       <c r="L216" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M216" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" t="b" s="4">
         <v>1</v>
@@ -14025,9 +13602,7 @@
       <c r="L217" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M217" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" t="b" s="4">
         <v>1</v>
@@ -14067,9 +13642,7 @@
       <c r="L218" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M218" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M218" s="3"/>
       <c r="N218" s="3"/>
       <c r="O218" t="b" s="4">
         <v>1</v>
@@ -14109,9 +13682,7 @@
       <c r="L219" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M219" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" t="b" s="4">
         <v>1</v>
@@ -14151,9 +13722,7 @@
       <c r="L220" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M220" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M220" s="3"/>
       <c r="N220" s="3"/>
       <c r="O220" t="b" s="4">
         <v>1</v>
@@ -14193,9 +13762,7 @@
       <c r="L221" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M221" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" t="b" s="4">
         <v>1</v>
@@ -14235,9 +13802,7 @@
       <c r="L222" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M222" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M222" s="3"/>
       <c r="N222" s="3"/>
       <c r="O222" t="b" s="4">
         <v>1</v>
@@ -14277,9 +13842,7 @@
       <c r="L223" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M223" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M223" s="3"/>
       <c r="N223" s="3"/>
       <c r="O223" t="b" s="4">
         <v>1</v>
@@ -14319,9 +13882,7 @@
       <c r="L224" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M224" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M224" s="3"/>
       <c r="N224" s="3"/>
       <c r="O224" t="b" s="4">
         <v>1</v>
@@ -14361,9 +13922,7 @@
       <c r="L225" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M225" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M225" s="3"/>
       <c r="N225" s="3"/>
       <c r="O225" t="b" s="4">
         <v>1</v>
@@ -14403,9 +13962,7 @@
       <c r="L226" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M226" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M226" s="3"/>
       <c r="N226" s="3"/>
       <c r="O226" t="b" s="4">
         <v>1</v>
@@ -14445,9 +14002,7 @@
       <c r="L227" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M227" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M227" s="3"/>
       <c r="N227" s="3"/>
       <c r="O227" t="b" s="4">
         <v>1</v>
@@ -14487,9 +14042,7 @@
       <c r="L228" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M228" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M228" s="3"/>
       <c r="N228" s="3"/>
       <c r="O228" t="b" s="4">
         <v>1</v>
@@ -14529,9 +14082,7 @@
       <c r="L229" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M229" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M229" s="3"/>
       <c r="N229" s="3"/>
       <c r="O229" t="b" s="4">
         <v>1</v>
@@ -14571,9 +14122,7 @@
       <c r="L230" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M230" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M230" s="3"/>
       <c r="N230" s="3"/>
       <c r="O230" t="b" s="4">
         <v>1</v>
@@ -14613,9 +14162,7 @@
       <c r="L231" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M231" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" t="b" s="4">
         <v>1</v>
@@ -14655,9 +14202,7 @@
       <c r="L232" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M232" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" t="b" s="4">
         <v>1</v>
@@ -14697,9 +14242,7 @@
       <c r="L233" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M233" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M233" s="3"/>
       <c r="N233" s="3"/>
       <c r="O233" t="b" s="4">
         <v>1</v>
@@ -14739,9 +14282,7 @@
       <c r="L234" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M234" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M234" s="3"/>
       <c r="N234" s="3"/>
       <c r="O234" t="b" s="4">
         <v>1</v>
@@ -14781,9 +14322,7 @@
       <c r="L235" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M235" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M235" s="3"/>
       <c r="N235" s="3"/>
       <c r="O235" t="b" s="4">
         <v>1</v>
@@ -14823,9 +14362,7 @@
       <c r="L236" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M236" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M236" s="3"/>
       <c r="N236" s="3"/>
       <c r="O236" t="b" s="4">
         <v>1</v>
@@ -14865,9 +14402,7 @@
       <c r="L237" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M237" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M237" s="3"/>
       <c r="N237" s="3"/>
       <c r="O237" t="b" s="4">
         <v>1</v>
@@ -14907,9 +14442,7 @@
       <c r="L238" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M238" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M238" s="3"/>
       <c r="N238" s="3"/>
       <c r="O238" t="b" s="4">
         <v>1</v>
@@ -14949,9 +14482,7 @@
       <c r="L239" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M239" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M239" s="3"/>
       <c r="N239" s="3"/>
       <c r="O239" t="b" s="4">
         <v>1</v>
@@ -14991,9 +14522,7 @@
       <c r="L240" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M240" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M240" s="3"/>
       <c r="N240" s="3"/>
       <c r="O240" t="b" s="4">
         <v>1</v>
@@ -15033,9 +14562,7 @@
       <c r="L241" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M241" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M241" s="3"/>
       <c r="N241" s="3"/>
       <c r="O241" t="b" s="4">
         <v>1</v>
@@ -15075,9 +14602,7 @@
       <c r="L242" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M242" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M242" s="3"/>
       <c r="N242" s="3"/>
       <c r="O242" t="b" s="4">
         <v>1</v>
@@ -15117,9 +14642,7 @@
       <c r="L243" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M243" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M243" s="3"/>
       <c r="N243" s="3"/>
       <c r="O243" t="b" s="4">
         <v>1</v>
@@ -15159,9 +14682,7 @@
       <c r="L244" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M244" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M244" s="3"/>
       <c r="N244" s="3"/>
       <c r="O244" t="b" s="4">
         <v>1</v>
@@ -15201,9 +14722,7 @@
       <c r="L245" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M245" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M245" s="3"/>
       <c r="N245" s="3"/>
       <c r="O245" t="b" s="4">
         <v>1</v>
@@ -15243,9 +14762,7 @@
       <c r="L246" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M246" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M246" s="3"/>
       <c r="N246" s="3"/>
       <c r="O246" t="b" s="4">
         <v>1</v>
@@ -15285,9 +14802,7 @@
       <c r="L247" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M247" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M247" s="3"/>
       <c r="N247" s="3"/>
       <c r="O247" t="b" s="4">
         <v>1</v>
@@ -15327,9 +14842,7 @@
       <c r="L248" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M248" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M248" s="3"/>
       <c r="N248" s="3"/>
       <c r="O248" t="b" s="4">
         <v>1</v>
@@ -15369,9 +14882,7 @@
       <c r="L249" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M249" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M249" s="3"/>
       <c r="N249" s="3"/>
       <c r="O249" t="b" s="4">
         <v>1</v>
@@ -15411,9 +14922,7 @@
       <c r="L250" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M250" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M250" s="3"/>
       <c r="N250" s="3"/>
       <c r="O250" t="b" s="4">
         <v>1</v>
@@ -15453,9 +14962,7 @@
       <c r="L251" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M251" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M251" s="3"/>
       <c r="N251" s="3"/>
       <c r="O251" t="b" s="4">
         <v>1</v>
@@ -15495,9 +15002,7 @@
       <c r="L252" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M252" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M252" s="3"/>
       <c r="N252" s="3"/>
       <c r="O252" t="b" s="4">
         <v>1</v>
@@ -15537,9 +15042,7 @@
       <c r="L253" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M253" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M253" s="3"/>
       <c r="N253" s="3"/>
       <c r="O253" t="b" s="4">
         <v>1</v>
@@ -15579,9 +15082,7 @@
       <c r="L254" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M254" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M254" s="3"/>
       <c r="N254" s="3"/>
       <c r="O254" t="b" s="4">
         <v>1</v>
@@ -15621,9 +15122,7 @@
       <c r="L255" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M255" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M255" s="3"/>
       <c r="N255" s="3"/>
       <c r="O255" t="b" s="4">
         <v>1</v>
@@ -15663,9 +15162,7 @@
       <c r="L256" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M256" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M256" s="3"/>
       <c r="N256" s="3"/>
       <c r="O256" t="b" s="4">
         <v>1</v>
@@ -15705,9 +15202,7 @@
       <c r="L257" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M257" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M257" s="3"/>
       <c r="N257" s="3"/>
       <c r="O257" t="b" s="4">
         <v>1</v>
@@ -15747,9 +15242,7 @@
       <c r="L258" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M258" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M258" s="3"/>
       <c r="N258" s="3"/>
       <c r="O258" t="b" s="4">
         <v>1</v>
@@ -15789,9 +15282,7 @@
       <c r="L259" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M259" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M259" s="3"/>
       <c r="N259" s="3"/>
       <c r="O259" t="b" s="4">
         <v>1</v>
@@ -15831,9 +15322,7 @@
       <c r="L260" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M260" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M260" s="3"/>
       <c r="N260" s="3"/>
       <c r="O260" t="b" s="4">
         <v>1</v>
@@ -15873,9 +15362,7 @@
       <c r="L261" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M261" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M261" s="3"/>
       <c r="N261" s="3"/>
       <c r="O261" t="b" s="4">
         <v>1</v>
@@ -15915,9 +15402,7 @@
       <c r="L262" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M262" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M262" s="3"/>
       <c r="N262" s="3"/>
       <c r="O262" t="b" s="4">
         <v>1</v>
@@ -15957,9 +15442,7 @@
       <c r="L263" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M263" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M263" s="3"/>
       <c r="N263" s="3"/>
       <c r="O263" t="b" s="4">
         <v>1</v>
@@ -15999,9 +15482,7 @@
       <c r="L264" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M264" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M264" s="3"/>
       <c r="N264" s="3"/>
       <c r="O264" t="b" s="4">
         <v>1</v>
@@ -16041,9 +15522,7 @@
       <c r="L265" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M265" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M265" s="3"/>
       <c r="N265" s="3"/>
       <c r="O265" t="b" s="4">
         <v>1</v>
@@ -16083,9 +15562,7 @@
       <c r="L266" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M266" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M266" s="3"/>
       <c r="N266" s="3"/>
       <c r="O266" t="b" s="4">
         <v>1</v>
@@ -16125,9 +15602,7 @@
       <c r="L267" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M267" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M267" s="3"/>
       <c r="N267" s="3"/>
       <c r="O267" t="b" s="4">
         <v>1</v>
@@ -16167,9 +15642,7 @@
       <c r="L268" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M268" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M268" s="3"/>
       <c r="N268" s="3"/>
       <c r="O268" t="b" s="4">
         <v>1</v>
@@ -16209,9 +15682,7 @@
       <c r="L269" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M269" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M269" s="3"/>
       <c r="N269" s="3"/>
       <c r="O269" t="b" s="4">
         <v>1</v>
@@ -16251,9 +15722,7 @@
       <c r="L270" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M270" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M270" s="3"/>
       <c r="N270" s="3"/>
       <c r="O270" t="b" s="4">
         <v>1</v>
@@ -16293,9 +15762,7 @@
       <c r="L271" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M271" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M271" s="3"/>
       <c r="N271" s="3"/>
       <c r="O271" t="b" s="4">
         <v>1</v>
@@ -16335,9 +15802,7 @@
       <c r="L272" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M272" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M272" s="3"/>
       <c r="N272" s="3"/>
       <c r="O272" t="b" s="4">
         <v>1</v>
@@ -16377,9 +15842,7 @@
       <c r="L273" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M273" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M273" s="3"/>
       <c r="N273" s="3"/>
       <c r="O273" t="b" s="4">
         <v>1</v>
@@ -16419,9 +15882,7 @@
       <c r="L274" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M274" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M274" s="3"/>
       <c r="N274" s="3"/>
       <c r="O274" t="b" s="4">
         <v>1</v>
@@ -16461,9 +15922,7 @@
       <c r="L275" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M275" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M275" s="3"/>
       <c r="N275" s="3"/>
       <c r="O275" t="b" s="4">
         <v>1</v>
@@ -16503,9 +15962,7 @@
       <c r="L276" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M276" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M276" s="3"/>
       <c r="N276" s="3"/>
       <c r="O276" t="b" s="4">
         <v>1</v>
@@ -16545,9 +16002,7 @@
       <c r="L277" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M277" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M277" s="3"/>
       <c r="N277" s="3"/>
       <c r="O277" t="b" s="4">
         <v>1</v>
@@ -16587,9 +16042,7 @@
       <c r="L278" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M278" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M278" s="3"/>
       <c r="N278" s="3"/>
       <c r="O278" t="b" s="4">
         <v>1</v>
@@ -16629,9 +16082,7 @@
       <c r="L279" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M279" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M279" s="3"/>
       <c r="N279" s="3"/>
       <c r="O279" t="b" s="4">
         <v>1</v>
@@ -16671,9 +16122,7 @@
       <c r="L280" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M280" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M280" s="3"/>
       <c r="N280" s="3"/>
       <c r="O280" t="b" s="4">
         <v>1</v>
@@ -16713,9 +16162,7 @@
       <c r="L281" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M281" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M281" s="3"/>
       <c r="N281" s="3"/>
       <c r="O281" t="b" s="4">
         <v>1</v>
@@ -16755,9 +16202,7 @@
       <c r="L282" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M282" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M282" s="3"/>
       <c r="N282" s="3"/>
       <c r="O282" t="b" s="4">
         <v>1</v>
@@ -16797,9 +16242,7 @@
       <c r="L283" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M283" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M283" s="3"/>
       <c r="N283" s="3"/>
       <c r="O283" t="b" s="4">
         <v>1</v>
@@ -16839,9 +16282,7 @@
       <c r="L284" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M284" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M284" s="3"/>
       <c r="N284" s="3"/>
       <c r="O284" t="b" s="4">
         <v>1</v>
@@ -16881,9 +16322,7 @@
       <c r="L285" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M285" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M285" s="3"/>
       <c r="N285" s="3"/>
       <c r="O285" t="b" s="4">
         <v>1</v>
@@ -16923,9 +16362,7 @@
       <c r="L286" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M286" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M286" s="3"/>
       <c r="N286" s="3"/>
       <c r="O286" t="b" s="4">
         <v>1</v>
@@ -16965,9 +16402,7 @@
       <c r="L287" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M287" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M287" s="3"/>
       <c r="N287" s="3"/>
       <c r="O287" t="b" s="4">
         <v>1</v>
@@ -17007,9 +16442,7 @@
       <c r="L288" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M288" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M288" s="3"/>
       <c r="N288" s="3"/>
       <c r="O288" t="b" s="4">
         <v>1</v>
@@ -17049,9 +16482,7 @@
       <c r="L289" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M289" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M289" s="3"/>
       <c r="N289" s="3"/>
       <c r="O289" t="b" s="4">
         <v>1</v>
@@ -17091,9 +16522,7 @@
       <c r="L290" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M290" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M290" s="3"/>
       <c r="N290" s="3"/>
       <c r="O290" t="b" s="4">
         <v>1</v>
@@ -17133,9 +16562,7 @@
       <c r="L291" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M291" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M291" s="3"/>
       <c r="N291" s="3"/>
       <c r="O291" t="b" s="4">
         <v>1</v>
@@ -17175,9 +16602,7 @@
       <c r="L292" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M292" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M292" s="3"/>
       <c r="N292" s="3"/>
       <c r="O292" t="b" s="4">
         <v>1</v>
@@ -17217,9 +16642,7 @@
       <c r="L293" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M293" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M293" s="3"/>
       <c r="N293" s="3"/>
       <c r="O293" t="b" s="4">
         <v>1</v>
@@ -17259,9 +16682,7 @@
       <c r="L294" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M294" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M294" s="3"/>
       <c r="N294" s="3"/>
       <c r="O294" t="b" s="4">
         <v>1</v>
@@ -17301,9 +16722,7 @@
       <c r="L295" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M295" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M295" s="3"/>
       <c r="N295" s="3"/>
       <c r="O295" t="b" s="4">
         <v>1</v>
@@ -17343,9 +16762,7 @@
       <c r="L296" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M296" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M296" s="3"/>
       <c r="N296" s="3"/>
       <c r="O296" t="b" s="4">
         <v>1</v>
@@ -17385,9 +16802,7 @@
       <c r="L297" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M297" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M297" s="3"/>
       <c r="N297" s="3"/>
       <c r="O297" t="b" s="4">
         <v>1</v>
@@ -17427,9 +16842,7 @@
       <c r="L298" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M298" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M298" s="3"/>
       <c r="N298" s="3"/>
       <c r="O298" t="b" s="4">
         <v>1</v>
@@ -17469,9 +16882,7 @@
       <c r="L299" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M299" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M299" s="3"/>
       <c r="N299" s="3"/>
       <c r="O299" t="b" s="4">
         <v>1</v>
@@ -17511,9 +16922,7 @@
       <c r="L300" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M300" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M300" s="3"/>
       <c r="N300" s="3"/>
       <c r="O300" t="b" s="4">
         <v>1</v>
@@ -17553,9 +16962,7 @@
       <c r="L301" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M301" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M301" s="3"/>
       <c r="N301" s="3"/>
       <c r="O301" t="b" s="4">
         <v>1</v>
@@ -17595,9 +17002,7 @@
       <c r="L302" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M302" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M302" s="3"/>
       <c r="N302" s="3"/>
       <c r="O302" t="b" s="4">
         <v>1</v>
@@ -17637,9 +17042,7 @@
       <c r="L303" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M303" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M303" s="3"/>
       <c r="N303" s="3"/>
       <c r="O303" t="b" s="4">
         <v>1</v>
@@ -17679,9 +17082,7 @@
       <c r="L304" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M304" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M304" s="3"/>
       <c r="N304" s="3"/>
       <c r="O304" t="b" s="4">
         <v>1</v>
@@ -17721,9 +17122,7 @@
       <c r="L305" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M305" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M305" s="3"/>
       <c r="N305" s="3"/>
       <c r="O305" t="b" s="4">
         <v>1</v>
@@ -17763,9 +17162,7 @@
       <c r="L306" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M306" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M306" s="3"/>
       <c r="N306" s="3"/>
       <c r="O306" t="b" s="4">
         <v>1</v>
@@ -17805,9 +17202,7 @@
       <c r="L307" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M307" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M307" s="3"/>
       <c r="N307" s="3"/>
       <c r="O307" t="b" s="4">
         <v>1</v>
@@ -17847,9 +17242,7 @@
       <c r="L308" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M308" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M308" s="3"/>
       <c r="N308" s="3"/>
       <c r="O308" t="b" s="4">
         <v>1</v>
@@ -17889,9 +17282,7 @@
       <c r="L309" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M309" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M309" s="3"/>
       <c r="N309" s="3"/>
       <c r="O309" t="b" s="4">
         <v>1</v>
@@ -17931,9 +17322,7 @@
       <c r="L310" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M310" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M310" s="3"/>
       <c r="N310" s="3"/>
       <c r="O310" t="b" s="4">
         <v>1</v>
@@ -17973,9 +17362,7 @@
       <c r="L311" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M311" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M311" s="3"/>
       <c r="N311" s="3"/>
       <c r="O311" t="b" s="4">
         <v>1</v>
@@ -18015,9 +17402,7 @@
       <c r="L312" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M312" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M312" s="3"/>
       <c r="N312" s="3"/>
       <c r="O312" t="b" s="4">
         <v>1</v>
@@ -18057,9 +17442,7 @@
       <c r="L313" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M313" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M313" s="3"/>
       <c r="N313" s="3"/>
       <c r="O313" t="b" s="4">
         <v>1</v>
@@ -18099,9 +17482,7 @@
       <c r="L314" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M314" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M314" s="3"/>
       <c r="N314" s="3"/>
       <c r="O314" t="b" s="4">
         <v>1</v>
@@ -18141,9 +17522,7 @@
       <c r="L315" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M315" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M315" s="3"/>
       <c r="N315" s="3"/>
       <c r="O315" t="b" s="4">
         <v>1</v>
@@ -18183,9 +17562,7 @@
       <c r="L316" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M316" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M316" s="3"/>
       <c r="N316" s="3"/>
       <c r="O316" t="b" s="4">
         <v>1</v>
@@ -18225,9 +17602,7 @@
       <c r="L317" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M317" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M317" s="3"/>
       <c r="N317" s="3"/>
       <c r="O317" t="b" s="4">
         <v>1</v>
@@ -18267,9 +17642,7 @@
       <c r="L318" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M318" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M318" s="3"/>
       <c r="N318" s="3"/>
       <c r="O318" t="b" s="4">
         <v>1</v>
@@ -18309,9 +17682,7 @@
       <c r="L319" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M319" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M319" s="3"/>
       <c r="N319" s="3"/>
       <c r="O319" t="b" s="4">
         <v>1</v>
@@ -18351,9 +17722,7 @@
       <c r="L320" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M320" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M320" s="3"/>
       <c r="N320" s="3"/>
       <c r="O320" t="b" s="4">
         <v>1</v>
@@ -18393,9 +17762,7 @@
       <c r="L321" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M321" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M321" s="3"/>
       <c r="N321" s="3"/>
       <c r="O321" t="b" s="4">
         <v>1</v>
@@ -18435,9 +17802,7 @@
       <c r="L322" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M322" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M322" s="3"/>
       <c r="N322" s="3"/>
       <c r="O322" t="b" s="4">
         <v>1</v>
@@ -18477,9 +17842,7 @@
       <c r="L323" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M323" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M323" s="3"/>
       <c r="N323" s="3"/>
       <c r="O323" t="b" s="4">
         <v>1</v>
@@ -18519,9 +17882,7 @@
       <c r="L324" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M324" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M324" s="3"/>
       <c r="N324" s="3"/>
       <c r="O324" t="b" s="4">
         <v>1</v>
@@ -18561,9 +17922,7 @@
       <c r="L325" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M325" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M325" s="3"/>
       <c r="N325" s="3"/>
       <c r="O325" t="b" s="4">
         <v>1</v>
@@ -18603,9 +17962,7 @@
       <c r="L326" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M326" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M326" s="3"/>
       <c r="N326" s="3"/>
       <c r="O326" t="b" s="4">
         <v>1</v>
@@ -18645,9 +18002,7 @@
       <c r="L327" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M327" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M327" s="3"/>
       <c r="N327" s="3"/>
       <c r="O327" t="b" s="4">
         <v>1</v>
@@ -18687,9 +18042,7 @@
       <c r="L328" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M328" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M328" s="3"/>
       <c r="N328" s="3"/>
       <c r="O328" t="b" s="4">
         <v>1</v>
@@ -18729,9 +18082,7 @@
       <c r="L329" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M329" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M329" s="3"/>
       <c r="N329" s="3"/>
       <c r="O329" t="b" s="4">
         <v>1</v>
@@ -18771,9 +18122,7 @@
       <c r="L330" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M330" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M330" s="3"/>
       <c r="N330" s="3"/>
       <c r="O330" t="b" s="4">
         <v>1</v>
@@ -18813,9 +18162,7 @@
       <c r="L331" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M331" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M331" s="3"/>
       <c r="N331" s="3"/>
       <c r="O331" t="b" s="4">
         <v>1</v>
@@ -18855,9 +18202,7 @@
       <c r="L332" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M332" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M332" s="3"/>
       <c r="N332" s="3"/>
       <c r="O332" t="b" s="4">
         <v>1</v>
@@ -18897,9 +18242,7 @@
       <c r="L333" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M333" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M333" s="3"/>
       <c r="N333" s="3"/>
       <c r="O333" t="b" s="4">
         <v>1</v>
@@ -18939,9 +18282,7 @@
       <c r="L334" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M334" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M334" s="3"/>
       <c r="N334" s="3"/>
       <c r="O334" t="b" s="4">
         <v>1</v>
@@ -18981,9 +18322,7 @@
       <c r="L335" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M335" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M335" s="3"/>
       <c r="N335" s="3"/>
       <c r="O335" t="b" s="4">
         <v>1</v>
@@ -19023,9 +18362,7 @@
       <c r="L336" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M336" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M336" s="3"/>
       <c r="N336" s="3"/>
       <c r="O336" t="b" s="4">
         <v>1</v>
@@ -19065,9 +18402,7 @@
       <c r="L337" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M337" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M337" s="3"/>
       <c r="N337" s="3"/>
       <c r="O337" t="b" s="4">
         <v>1</v>
@@ -19107,9 +18442,7 @@
       <c r="L338" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M338" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M338" s="3"/>
       <c r="N338" s="3"/>
       <c r="O338" t="b" s="4">
         <v>1</v>
@@ -19149,9 +18482,7 @@
       <c r="L339" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M339" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M339" s="3"/>
       <c r="N339" s="3"/>
       <c r="O339" t="b" s="4">
         <v>1</v>
@@ -19191,9 +18522,7 @@
       <c r="L340" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M340" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M340" s="3"/>
       <c r="N340" s="3"/>
       <c r="O340" t="b" s="4">
         <v>1</v>
@@ -19233,9 +18562,7 @@
       <c r="L341" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M341" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M341" s="3"/>
       <c r="N341" s="3"/>
       <c r="O341" t="b" s="4">
         <v>1</v>
@@ -19275,9 +18602,7 @@
       <c r="L342" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M342" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M342" s="3"/>
       <c r="N342" s="3"/>
       <c r="O342" t="b" s="4">
         <v>1</v>
@@ -19317,9 +18642,7 @@
       <c r="L343" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M343" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M343" s="3"/>
       <c r="N343" s="3"/>
       <c r="O343" t="b" s="4">
         <v>1</v>
@@ -19359,9 +18682,7 @@
       <c r="L344" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M344" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M344" s="3"/>
       <c r="N344" s="3"/>
       <c r="O344" t="b" s="4">
         <v>1</v>
@@ -19401,9 +18722,7 @@
       <c r="L345" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M345" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M345" s="3"/>
       <c r="N345" s="3"/>
       <c r="O345" t="b" s="4">
         <v>1</v>
@@ -19443,9 +18762,7 @@
       <c r="L346" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M346" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M346" s="3"/>
       <c r="N346" s="3"/>
       <c r="O346" t="b" s="4">
         <v>1</v>
@@ -19485,9 +18802,7 @@
       <c r="L347" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M347" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M347" s="3"/>
       <c r="N347" s="3"/>
       <c r="O347" t="b" s="4">
         <v>1</v>
@@ -19527,9 +18842,7 @@
       <c r="L348" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M348" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M348" s="3"/>
       <c r="N348" s="3"/>
       <c r="O348" t="b" s="4">
         <v>1</v>
@@ -19569,9 +18882,7 @@
       <c r="L349" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M349" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M349" s="3"/>
       <c r="N349" s="3"/>
       <c r="O349" t="b" s="4">
         <v>1</v>
@@ -19611,9 +18922,7 @@
       <c r="L350" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M350" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M350" s="3"/>
       <c r="N350" s="3"/>
       <c r="O350" t="b" s="4">
         <v>1</v>
@@ -19653,9 +18962,7 @@
       <c r="L351" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M351" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M351" s="3"/>
       <c r="N351" s="3"/>
       <c r="O351" t="b" s="4">
         <v>1</v>
@@ -19695,9 +19002,7 @@
       <c r="L352" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M352" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M352" s="3"/>
       <c r="N352" s="3"/>
       <c r="O352" t="b" s="4">
         <v>1</v>
@@ -19737,9 +19042,7 @@
       <c r="L353" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M353" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M353" s="3"/>
       <c r="N353" s="3"/>
       <c r="O353" t="b" s="4">
         <v>1</v>
@@ -19779,9 +19082,7 @@
       <c r="L354" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M354" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M354" s="3"/>
       <c r="N354" s="3"/>
       <c r="O354" t="b" s="4">
         <v>1</v>
@@ -19821,9 +19122,7 @@
       <c r="L355" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M355" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M355" s="3"/>
       <c r="N355" s="3"/>
       <c r="O355" t="b" s="4">
         <v>1</v>
@@ -19863,9 +19162,7 @@
       <c r="L356" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M356" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M356" s="3"/>
       <c r="N356" s="3"/>
       <c r="O356" t="b" s="4">
         <v>1</v>
@@ -19905,9 +19202,7 @@
       <c r="L357" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M357" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M357" s="3"/>
       <c r="N357" s="3"/>
       <c r="O357" t="b" s="4">
         <v>1</v>
@@ -19947,9 +19242,7 @@
       <c r="L358" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M358" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M358" s="3"/>
       <c r="N358" s="3"/>
       <c r="O358" t="b" s="4">
         <v>1</v>
@@ -19989,9 +19282,7 @@
       <c r="L359" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M359" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M359" s="3"/>
       <c r="N359" s="3"/>
       <c r="O359" t="b" s="4">
         <v>1</v>
@@ -20031,9 +19322,7 @@
       <c r="L360" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M360" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M360" s="3"/>
       <c r="N360" s="3"/>
       <c r="O360" t="b" s="4">
         <v>1</v>
@@ -20073,9 +19362,7 @@
       <c r="L361" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M361" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M361" s="3"/>
       <c r="N361" s="3"/>
       <c r="O361" t="b" s="4">
         <v>1</v>
@@ -20115,9 +19402,7 @@
       <c r="L362" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M362" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M362" s="3"/>
       <c r="N362" s="3"/>
       <c r="O362" t="b" s="4">
         <v>1</v>
@@ -20157,9 +19442,7 @@
       <c r="L363" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M363" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M363" s="3"/>
       <c r="N363" s="3"/>
       <c r="O363" t="b" s="4">
         <v>1</v>
@@ -20199,9 +19482,7 @@
       <c r="L364" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M364" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M364" s="3"/>
       <c r="N364" s="3"/>
       <c r="O364" t="b" s="4">
         <v>1</v>
@@ -20241,9 +19522,7 @@
       <c r="L365" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M365" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M365" s="3"/>
       <c r="N365" s="3"/>
       <c r="O365" t="b" s="4">
         <v>1</v>
@@ -20283,9 +19562,7 @@
       <c r="L366" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M366" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M366" s="3"/>
       <c r="N366" s="3"/>
       <c r="O366" t="b" s="4">
         <v>1</v>
@@ -20325,9 +19602,7 @@
       <c r="L367" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M367" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M367" s="3"/>
       <c r="N367" s="3"/>
       <c r="O367" t="b" s="4">
         <v>1</v>
@@ -20367,9 +19642,7 @@
       <c r="L368" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M368" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M368" s="3"/>
       <c r="N368" s="3"/>
       <c r="O368" t="b" s="4">
         <v>1</v>
@@ -20409,9 +19682,7 @@
       <c r="L369" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M369" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M369" s="3"/>
       <c r="N369" s="3"/>
       <c r="O369" t="b" s="4">
         <v>1</v>
@@ -20451,9 +19722,7 @@
       <c r="L370" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M370" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M370" s="3"/>
       <c r="N370" s="3"/>
       <c r="O370" t="b" s="4">
         <v>1</v>
@@ -20493,9 +19762,7 @@
       <c r="L371" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M371" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M371" s="3"/>
       <c r="N371" s="3"/>
       <c r="O371" t="b" s="4">
         <v>1</v>
@@ -20535,9 +19802,7 @@
       <c r="L372" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M372" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M372" s="3"/>
       <c r="N372" s="3"/>
       <c r="O372" t="b" s="4">
         <v>1</v>
@@ -20577,9 +19842,7 @@
       <c r="L373" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M373" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M373" s="3"/>
       <c r="N373" s="3"/>
       <c r="O373" t="b" s="4">
         <v>1</v>
@@ -20619,9 +19882,7 @@
       <c r="L374" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M374" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M374" s="3"/>
       <c r="N374" s="3"/>
       <c r="O374" t="b" s="4">
         <v>1</v>
@@ -20661,9 +19922,7 @@
       <c r="L375" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M375" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M375" s="3"/>
       <c r="N375" s="3"/>
       <c r="O375" t="b" s="4">
         <v>1</v>
@@ -20703,9 +19962,7 @@
       <c r="L376" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M376" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M376" s="3"/>
       <c r="N376" s="3"/>
       <c r="O376" t="b" s="4">
         <v>1</v>
@@ -20745,9 +20002,7 @@
       <c r="L377" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M377" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M377" s="3"/>
       <c r="N377" s="3"/>
       <c r="O377" t="b" s="4">
         <v>1</v>
@@ -20787,9 +20042,7 @@
       <c r="L378" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M378" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M378" s="3"/>
       <c r="N378" s="3"/>
       <c r="O378" t="b" s="4">
         <v>1</v>
@@ -20829,9 +20082,7 @@
       <c r="L379" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M379" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M379" s="3"/>
       <c r="N379" s="3"/>
       <c r="O379" t="b" s="4">
         <v>1</v>
@@ -20871,9 +20122,7 @@
       <c r="L380" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M380" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M380" s="3"/>
       <c r="N380" s="3"/>
       <c r="O380" t="b" s="4">
         <v>1</v>
@@ -20913,9 +20162,7 @@
       <c r="L381" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M381" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M381" s="3"/>
       <c r="N381" s="3"/>
       <c r="O381" t="b" s="4">
         <v>1</v>
@@ -20955,9 +20202,7 @@
       <c r="L382" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M382" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M382" s="3"/>
       <c r="N382" s="3"/>
       <c r="O382" t="b" s="4">
         <v>1</v>
@@ -20997,9 +20242,7 @@
       <c r="L383" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M383" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M383" s="3"/>
       <c r="N383" s="3"/>
       <c r="O383" t="b" s="4">
         <v>1</v>
@@ -21039,9 +20282,7 @@
       <c r="L384" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M384" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M384" s="3"/>
       <c r="N384" s="3"/>
       <c r="O384" t="b" s="4">
         <v>1</v>
@@ -21081,9 +20322,7 @@
       <c r="L385" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M385" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M385" s="3"/>
       <c r="N385" s="3"/>
       <c r="O385" t="b" s="4">
         <v>1</v>
@@ -21123,9 +20362,7 @@
       <c r="L386" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M386" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M386" s="3"/>
       <c r="N386" s="3"/>
       <c r="O386" t="b" s="4">
         <v>1</v>
@@ -21165,9 +20402,7 @@
       <c r="L387" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M387" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M387" s="3"/>
       <c r="N387" s="3"/>
       <c r="O387" t="b" s="4">
         <v>1</v>
@@ -21207,9 +20442,7 @@
       <c r="L388" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M388" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M388" s="3"/>
       <c r="N388" s="3"/>
       <c r="O388" t="b" s="4">
         <v>1</v>
@@ -21249,9 +20482,7 @@
       <c r="L389" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M389" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M389" s="3"/>
       <c r="N389" s="3"/>
       <c r="O389" t="b" s="4">
         <v>1</v>
@@ -21291,9 +20522,7 @@
       <c r="L390" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M390" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M390" s="3"/>
       <c r="N390" s="3"/>
       <c r="O390" t="b" s="4">
         <v>1</v>
@@ -21333,9 +20562,7 @@
       <c r="L391" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M391" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M391" s="3"/>
       <c r="N391" s="3"/>
       <c r="O391" t="b" s="4">
         <v>1</v>
@@ -21375,9 +20602,7 @@
       <c r="L392" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M392" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M392" s="3"/>
       <c r="N392" s="3"/>
       <c r="O392" t="b" s="4">
         <v>1</v>
@@ -21417,9 +20642,7 @@
       <c r="L393" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M393" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M393" s="3"/>
       <c r="N393" s="3"/>
       <c r="O393" t="b" s="4">
         <v>1</v>
@@ -21459,9 +20682,7 @@
       <c r="L394" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M394" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M394" s="3"/>
       <c r="N394" s="3"/>
       <c r="O394" t="b" s="4">
         <v>1</v>
@@ -21501,9 +20722,7 @@
       <c r="L395" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M395" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M395" s="3"/>
       <c r="N395" s="3"/>
       <c r="O395" t="b" s="4">
         <v>1</v>
@@ -21543,9 +20762,7 @@
       <c r="L396" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M396" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M396" s="3"/>
       <c r="N396" s="3"/>
       <c r="O396" t="b" s="4">
         <v>1</v>
@@ -21585,9 +20802,7 @@
       <c r="L397" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M397" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M397" s="3"/>
       <c r="N397" s="3"/>
       <c r="O397" t="b" s="4">
         <v>1</v>
@@ -21627,9 +20842,7 @@
       <c r="L398" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M398" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M398" s="3"/>
       <c r="N398" s="3"/>
       <c r="O398" t="b" s="4">
         <v>1</v>
@@ -21669,9 +20882,7 @@
       <c r="L399" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M399" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M399" s="3"/>
       <c r="N399" s="3"/>
       <c r="O399" t="b" s="4">
         <v>1</v>
@@ -21711,9 +20922,7 @@
       <c r="L400" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M400" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M400" s="3"/>
       <c r="N400" s="3"/>
       <c r="O400" t="b" s="4">
         <v>1</v>
@@ -21753,9 +20962,7 @@
       <c r="L401" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M401" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M401" s="3"/>
       <c r="N401" s="3"/>
       <c r="O401" t="b" s="4">
         <v>1</v>
@@ -21795,9 +21002,7 @@
       <c r="L402" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M402" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M402" s="3"/>
       <c r="N402" s="3"/>
       <c r="O402" t="b" s="4">
         <v>1</v>
@@ -21837,9 +21042,7 @@
       <c r="L403" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M403" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M403" s="3"/>
       <c r="N403" s="3"/>
       <c r="O403" t="b" s="4">
         <v>1</v>
@@ -21879,9 +21082,7 @@
       <c r="L404" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M404" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M404" s="3"/>
       <c r="N404" s="3"/>
       <c r="O404" t="b" s="4">
         <v>1</v>
@@ -21921,9 +21122,7 @@
       <c r="L405" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M405" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M405" s="3"/>
       <c r="N405" s="3"/>
       <c r="O405" t="b" s="4">
         <v>1</v>
@@ -21963,9 +21162,7 @@
       <c r="L406" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M406" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M406" s="3"/>
       <c r="N406" s="3"/>
       <c r="O406" t="b" s="4">
         <v>1</v>
@@ -22005,9 +21202,7 @@
       <c r="L407" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M407" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M407" s="3"/>
       <c r="N407" s="3"/>
       <c r="O407" t="b" s="4">
         <v>1</v>
@@ -22047,9 +21242,7 @@
       <c r="L408" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M408" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M408" s="3"/>
       <c r="N408" s="3"/>
       <c r="O408" t="b" s="4">
         <v>1</v>
@@ -22089,9 +21282,7 @@
       <c r="L409" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M409" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M409" s="3"/>
       <c r="N409" s="3"/>
       <c r="O409" t="b" s="4">
         <v>1</v>
@@ -22131,9 +21322,7 @@
       <c r="L410" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M410" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M410" s="3"/>
       <c r="N410" s="3"/>
       <c r="O410" t="b" s="4">
         <v>1</v>
@@ -22173,9 +21362,7 @@
       <c r="L411" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M411" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M411" s="3"/>
       <c r="N411" s="3"/>
       <c r="O411" t="b" s="4">
         <v>1</v>
@@ -22215,9 +21402,7 @@
       <c r="L412" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M412" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M412" s="3"/>
       <c r="N412" s="3"/>
       <c r="O412" t="b" s="4">
         <v>1</v>
@@ -22257,9 +21442,7 @@
       <c r="L413" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M413" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M413" s="3"/>
       <c r="N413" s="3"/>
       <c r="O413" t="b" s="4">
         <v>1</v>
@@ -22299,9 +21482,7 @@
       <c r="L414" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M414" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M414" s="3"/>
       <c r="N414" s="3"/>
       <c r="O414" t="b" s="4">
         <v>1</v>
@@ -22341,9 +21522,7 @@
       <c r="L415" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M415" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M415" s="3"/>
       <c r="N415" s="3"/>
       <c r="O415" t="b" s="4">
         <v>1</v>
@@ -22383,9 +21562,7 @@
       <c r="L416" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M416" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M416" s="3"/>
       <c r="N416" s="3"/>
       <c r="O416" t="b" s="4">
         <v>1</v>
@@ -22425,9 +21602,7 @@
       <c r="L417" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M417" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M417" s="3"/>
       <c r="N417" s="3"/>
       <c r="O417" t="b" s="4">
         <v>1</v>
@@ -22467,9 +21642,7 @@
       <c r="L418" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M418" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M418" s="3"/>
       <c r="N418" s="3"/>
       <c r="O418" t="b" s="4">
         <v>1</v>
@@ -22509,9 +21682,7 @@
       <c r="L419" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M419" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M419" s="3"/>
       <c r="N419" s="3"/>
       <c r="O419" t="b" s="4">
         <v>1</v>
@@ -22551,9 +21722,7 @@
       <c r="L420" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M420" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M420" s="3"/>
       <c r="N420" s="3"/>
       <c r="O420" t="b" s="4">
         <v>1</v>
@@ -22593,9 +21762,7 @@
       <c r="L421" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M421" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M421" s="3"/>
       <c r="N421" s="3"/>
       <c r="O421" t="b" s="4">
         <v>1</v>
@@ -22635,9 +21802,7 @@
       <c r="L422" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M422" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M422" s="3"/>
       <c r="N422" s="3"/>
       <c r="O422" t="b" s="4">
         <v>1</v>
@@ -22677,9 +21842,7 @@
       <c r="L423" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M423" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M423" s="3"/>
       <c r="N423" s="3"/>
       <c r="O423" t="b" s="4">
         <v>1</v>
@@ -22719,9 +21882,7 @@
       <c r="L424" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M424" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M424" s="3"/>
       <c r="N424" s="3"/>
       <c r="O424" t="b" s="4">
         <v>1</v>
@@ -22761,9 +21922,7 @@
       <c r="L425" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M425" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M425" s="3"/>
       <c r="N425" s="3"/>
       <c r="O425" t="b" s="4">
         <v>1</v>
@@ -22803,9 +21962,7 @@
       <c r="L426" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M426" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M426" s="3"/>
       <c r="N426" s="3"/>
       <c r="O426" t="b" s="4">
         <v>1</v>
@@ -22845,9 +22002,7 @@
       <c r="L427" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M427" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M427" s="3"/>
       <c r="N427" s="3"/>
       <c r="O427" t="b" s="4">
         <v>1</v>
@@ -22887,9 +22042,7 @@
       <c r="L428" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M428" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M428" s="3"/>
       <c r="N428" s="3"/>
       <c r="O428" t="b" s="4">
         <v>1</v>
@@ -22929,9 +22082,7 @@
       <c r="L429" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M429" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M429" s="3"/>
       <c r="N429" s="3"/>
       <c r="O429" t="b" s="4">
         <v>1</v>
@@ -22971,9 +22122,7 @@
       <c r="L430" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M430" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M430" s="3"/>
       <c r="N430" s="3"/>
       <c r="O430" t="b" s="4">
         <v>1</v>
@@ -23013,9 +22162,7 @@
       <c r="L431" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M431" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M431" s="3"/>
       <c r="N431" s="3"/>
       <c r="O431" t="b" s="4">
         <v>1</v>
@@ -23055,9 +22202,7 @@
       <c r="L432" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M432" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M432" s="3"/>
       <c r="N432" s="3"/>
       <c r="O432" t="b" s="4">
         <v>1</v>
@@ -23097,9 +22242,7 @@
       <c r="L433" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M433" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M433" s="3"/>
       <c r="N433" s="3"/>
       <c r="O433" t="b" s="4">
         <v>1</v>
@@ -23139,9 +22282,7 @@
       <c r="L434" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M434" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M434" s="3"/>
       <c r="N434" s="3"/>
       <c r="O434" t="b" s="4">
         <v>1</v>
@@ -23181,9 +22322,7 @@
       <c r="L435" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M435" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M435" s="3"/>
       <c r="N435" s="3"/>
       <c r="O435" t="b" s="4">
         <v>1</v>
@@ -23223,9 +22362,7 @@
       <c r="L436" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M436" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M436" s="3"/>
       <c r="N436" s="3"/>
       <c r="O436" t="b" s="4">
         <v>1</v>
@@ -23265,9 +22402,7 @@
       <c r="L437" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M437" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M437" s="3"/>
       <c r="N437" s="3"/>
       <c r="O437" t="b" s="4">
         <v>1</v>
@@ -23307,9 +22442,7 @@
       <c r="L438" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M438" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M438" s="3"/>
       <c r="N438" s="3"/>
       <c r="O438" t="b" s="4">
         <v>1</v>
@@ -23349,9 +22482,7 @@
       <c r="L439" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M439" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M439" s="3"/>
       <c r="N439" s="3"/>
       <c r="O439" t="b" s="4">
         <v>1</v>
@@ -23391,9 +22522,7 @@
       <c r="L440" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M440" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M440" s="3"/>
       <c r="N440" s="3"/>
       <c r="O440" t="b" s="4">
         <v>1</v>
@@ -23433,9 +22562,7 @@
       <c r="L441" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M441" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M441" s="3"/>
       <c r="N441" s="3"/>
       <c r="O441" t="b" s="4">
         <v>1</v>
@@ -23475,9 +22602,7 @@
       <c r="L442" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M442" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M442" s="3"/>
       <c r="N442" s="3"/>
       <c r="O442" t="b" s="4">
         <v>1</v>
@@ -23517,9 +22642,7 @@
       <c r="L443" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M443" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M443" s="3"/>
       <c r="N443" s="3"/>
       <c r="O443" t="b" s="4">
         <v>1</v>
@@ -23559,9 +22682,7 @@
       <c r="L444" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M444" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M444" s="3"/>
       <c r="N444" s="3"/>
       <c r="O444" t="b" s="4">
         <v>1</v>
@@ -23601,9 +22722,7 @@
       <c r="L445" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M445" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M445" s="3"/>
       <c r="N445" s="3"/>
       <c r="O445" t="b" s="4">
         <v>1</v>
@@ -23643,9 +22762,7 @@
       <c r="L446" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M446" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M446" s="3"/>
       <c r="N446" s="3"/>
       <c r="O446" t="b" s="4">
         <v>1</v>
@@ -23685,9 +22802,7 @@
       <c r="L447" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M447" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M447" s="3"/>
       <c r="N447" s="3"/>
       <c r="O447" t="b" s="4">
         <v>1</v>
@@ -23727,9 +22842,7 @@
       <c r="L448" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M448" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M448" s="3"/>
       <c r="N448" s="3"/>
       <c r="O448" t="b" s="4">
         <v>1</v>
@@ -23769,9 +22882,7 @@
       <c r="L449" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M449" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M449" s="3"/>
       <c r="N449" s="3"/>
       <c r="O449" t="b" s="4">
         <v>1</v>
@@ -23811,9 +22922,7 @@
       <c r="L450" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M450" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M450" s="3"/>
       <c r="N450" s="3"/>
       <c r="O450" t="b" s="4">
         <v>1</v>
@@ -23853,9 +22962,7 @@
       <c r="L451" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M451" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M451" s="3"/>
       <c r="N451" s="3"/>
       <c r="O451" t="b" s="4">
         <v>1</v>
@@ -23895,9 +23002,7 @@
       <c r="L452" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M452" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M452" s="3"/>
       <c r="N452" s="3"/>
       <c r="O452" t="b" s="4">
         <v>1</v>
@@ -23937,9 +23042,7 @@
       <c r="L453" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M453" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M453" s="3"/>
       <c r="N453" s="3"/>
       <c r="O453" t="b" s="4">
         <v>1</v>
@@ -23979,9 +23082,7 @@
       <c r="L454" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M454" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M454" s="3"/>
       <c r="N454" s="3"/>
       <c r="O454" t="b" s="4">
         <v>1</v>
@@ -24021,9 +23122,7 @@
       <c r="L455" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M455" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M455" s="3"/>
       <c r="N455" s="3"/>
       <c r="O455" t="b" s="4">
         <v>1</v>
@@ -24063,9 +23162,7 @@
       <c r="L456" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M456" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M456" s="3"/>
       <c r="N456" s="3"/>
       <c r="O456" t="b" s="4">
         <v>1</v>
@@ -24105,9 +23202,7 @@
       <c r="L457" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M457" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M457" s="3"/>
       <c r="N457" s="3"/>
       <c r="O457" t="b" s="4">
         <v>1</v>
@@ -24147,9 +23242,7 @@
       <c r="L458" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M458" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M458" s="3"/>
       <c r="N458" s="3"/>
       <c r="O458" t="b" s="4">
         <v>1</v>
@@ -24189,9 +23282,7 @@
       <c r="L459" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M459" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M459" s="3"/>
       <c r="N459" s="3"/>
       <c r="O459" t="b" s="4">
         <v>1</v>
@@ -24231,9 +23322,7 @@
       <c r="L460" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M460" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M460" s="3"/>
       <c r="N460" s="3"/>
       <c r="O460" t="b" s="4">
         <v>1</v>
@@ -24273,9 +23362,7 @@
       <c r="L461" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M461" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M461" s="3"/>
       <c r="N461" s="3"/>
       <c r="O461" t="b" s="4">
         <v>1</v>
@@ -24315,9 +23402,7 @@
       <c r="L462" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M462" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M462" s="3"/>
       <c r="N462" s="3"/>
       <c r="O462" t="b" s="4">
         <v>1</v>
@@ -24357,9 +23442,7 @@
       <c r="L463" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M463" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M463" s="3"/>
       <c r="N463" s="3"/>
       <c r="O463" t="b" s="4">
         <v>1</v>
@@ -24399,9 +23482,7 @@
       <c r="L464" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M464" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M464" s="3"/>
       <c r="N464" s="3"/>
       <c r="O464" t="b" s="4">
         <v>1</v>
@@ -24441,9 +23522,7 @@
       <c r="L465" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M465" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M465" s="3"/>
       <c r="N465" s="3"/>
       <c r="O465" t="b" s="4">
         <v>1</v>
@@ -24483,9 +23562,7 @@
       <c r="L466" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M466" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M466" s="3"/>
       <c r="N466" s="3"/>
       <c r="O466" t="b" s="4">
         <v>1</v>
@@ -24525,9 +23602,7 @@
       <c r="L467" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M467" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M467" s="3"/>
       <c r="N467" s="3"/>
       <c r="O467" t="b" s="4">
         <v>1</v>
@@ -24567,9 +23642,7 @@
       <c r="L468" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M468" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M468" s="3"/>
       <c r="N468" s="3"/>
       <c r="O468" t="b" s="4">
         <v>1</v>
@@ -24609,9 +23682,7 @@
       <c r="L469" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M469" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M469" s="3"/>
       <c r="N469" s="3"/>
       <c r="O469" t="b" s="4">
         <v>1</v>
@@ -24651,9 +23722,7 @@
       <c r="L470" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M470" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M470" s="3"/>
       <c r="N470" s="3"/>
       <c r="O470" t="b" s="4">
         <v>1</v>
@@ -24693,9 +23762,7 @@
       <c r="L471" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M471" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M471" s="3"/>
       <c r="N471" s="3"/>
       <c r="O471" t="b" s="4">
         <v>1</v>
@@ -24735,9 +23802,7 @@
       <c r="L472" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M472" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M472" s="3"/>
       <c r="N472" s="3"/>
       <c r="O472" t="b" s="4">
         <v>1</v>
@@ -24777,9 +23842,7 @@
       <c r="L473" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M473" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M473" s="3"/>
       <c r="N473" s="3"/>
       <c r="O473" t="b" s="4">
         <v>1</v>
@@ -24819,9 +23882,7 @@
       <c r="L474" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M474" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M474" s="3"/>
       <c r="N474" s="3"/>
       <c r="O474" t="b" s="4">
         <v>1</v>
@@ -24861,9 +23922,7 @@
       <c r="L475" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M475" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M475" s="3"/>
       <c r="N475" s="3"/>
       <c r="O475" t="b" s="4">
         <v>1</v>
@@ -24903,9 +23962,7 @@
       <c r="L476" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M476" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M476" s="3"/>
       <c r="N476" s="3"/>
       <c r="O476" t="b" s="4">
         <v>1</v>
@@ -24945,9 +24002,7 @@
       <c r="L477" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M477" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M477" s="3"/>
       <c r="N477" s="3"/>
       <c r="O477" t="b" s="4">
         <v>1</v>
@@ -24987,9 +24042,7 @@
       <c r="L478" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M478" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M478" s="3"/>
       <c r="N478" s="3"/>
       <c r="O478" t="b" s="4">
         <v>1</v>
@@ -25029,9 +24082,7 @@
       <c r="L479" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M479" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M479" s="3"/>
       <c r="N479" s="3"/>
       <c r="O479" t="b" s="4">
         <v>1</v>
@@ -25071,9 +24122,7 @@
       <c r="L480" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M480" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M480" s="3"/>
       <c r="N480" s="3"/>
       <c r="O480" t="b" s="4">
         <v>1</v>
@@ -25113,9 +24162,7 @@
       <c r="L481" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M481" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M481" s="3"/>
       <c r="N481" s="3"/>
       <c r="O481" t="b" s="4">
         <v>1</v>
@@ -25155,9 +24202,7 @@
       <c r="L482" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M482" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M482" s="3"/>
       <c r="N482" s="3"/>
       <c r="O482" t="b" s="4">
         <v>1</v>
@@ -25197,9 +24242,7 @@
       <c r="L483" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M483" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M483" s="3"/>
       <c r="N483" s="3"/>
       <c r="O483" t="b" s="4">
         <v>1</v>
@@ -25239,9 +24282,7 @@
       <c r="L484" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M484" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M484" s="3"/>
       <c r="N484" s="3"/>
       <c r="O484" t="b" s="4">
         <v>1</v>
@@ -25281,9 +24322,7 @@
       <c r="L485" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M485" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M485" s="3"/>
       <c r="N485" s="3"/>
       <c r="O485" t="b" s="4">
         <v>1</v>
@@ -25323,9 +24362,7 @@
       <c r="L486" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M486" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M486" s="3"/>
       <c r="N486" s="3"/>
       <c r="O486" t="b" s="4">
         <v>1</v>
@@ -25365,9 +24402,7 @@
       <c r="L487" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M487" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M487" s="3"/>
       <c r="N487" s="3"/>
       <c r="O487" t="b" s="4">
         <v>1</v>
@@ -25407,9 +24442,7 @@
       <c r="L488" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M488" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M488" s="3"/>
       <c r="N488" s="3"/>
       <c r="O488" t="b" s="4">
         <v>1</v>
@@ -25449,9 +24482,7 @@
       <c r="L489" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M489" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M489" s="3"/>
       <c r="N489" s="3"/>
       <c r="O489" t="b" s="4">
         <v>1</v>
@@ -25491,9 +24522,7 @@
       <c r="L490" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M490" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M490" s="3"/>
       <c r="N490" s="3"/>
       <c r="O490" t="b" s="4">
         <v>1</v>
@@ -25533,9 +24562,7 @@
       <c r="L491" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M491" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M491" s="3"/>
       <c r="N491" s="3"/>
       <c r="O491" t="b" s="4">
         <v>1</v>
@@ -25575,9 +24602,7 @@
       <c r="L492" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M492" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M492" s="3"/>
       <c r="N492" s="3"/>
       <c r="O492" t="b" s="4">
         <v>1</v>
@@ -25617,9 +24642,7 @@
       <c r="L493" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M493" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M493" s="3"/>
       <c r="N493" s="3"/>
       <c r="O493" t="b" s="4">
         <v>1</v>
@@ -25659,9 +24682,7 @@
       <c r="L494" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M494" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M494" s="3"/>
       <c r="N494" s="3"/>
       <c r="O494" t="b" s="4">
         <v>1</v>
@@ -25701,9 +24722,7 @@
       <c r="L495" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M495" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M495" s="3"/>
       <c r="N495" s="3"/>
       <c r="O495" t="b" s="4">
         <v>1</v>
@@ -25743,9 +24762,7 @@
       <c r="L496" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M496" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M496" s="3"/>
       <c r="N496" s="3"/>
       <c r="O496" t="b" s="4">
         <v>1</v>
@@ -25785,9 +24802,7 @@
       <c r="L497" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M497" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M497" s="3"/>
       <c r="N497" s="3"/>
       <c r="O497" t="b" s="4">
         <v>1</v>
@@ -25827,9 +24842,7 @@
       <c r="L498" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M498" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M498" s="3"/>
       <c r="N498" s="3"/>
       <c r="O498" t="b" s="4">
         <v>1</v>
@@ -25869,9 +24882,7 @@
       <c r="L499" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M499" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M499" s="3"/>
       <c r="N499" s="3"/>
       <c r="O499" t="b" s="4">
         <v>1</v>
@@ -25911,9 +24922,7 @@
       <c r="L500" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M500" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M500" s="3"/>
       <c r="N500" s="3"/>
       <c r="O500" t="b" s="4">
         <v>1</v>
@@ -25953,9 +24962,7 @@
       <c r="L501" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M501" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M501" s="3"/>
       <c r="N501" s="3"/>
       <c r="O501" t="b" s="4">
         <v>1</v>
@@ -25995,9 +25002,7 @@
       <c r="L502" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M502" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M502" s="3"/>
       <c r="N502" s="3"/>
       <c r="O502" t="b" s="4">
         <v>1</v>
@@ -26037,9 +25042,7 @@
       <c r="L503" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M503" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M503" s="3"/>
       <c r="N503" s="3"/>
       <c r="O503" t="b" s="4">
         <v>1</v>
@@ -26079,9 +25082,7 @@
       <c r="L504" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M504" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M504" s="3"/>
       <c r="N504" s="3"/>
       <c r="O504" t="b" s="4">
         <v>1</v>
@@ -26121,9 +25122,7 @@
       <c r="L505" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M505" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M505" s="3"/>
       <c r="N505" s="3"/>
       <c r="O505" t="b" s="4">
         <v>1</v>
@@ -26163,9 +25162,7 @@
       <c r="L506" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M506" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M506" s="3"/>
       <c r="N506" s="3"/>
       <c r="O506" t="b" s="4">
         <v>1</v>
@@ -26205,9 +25202,7 @@
       <c r="L507" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M507" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M507" s="3"/>
       <c r="N507" s="3"/>
       <c r="O507" t="b" s="4">
         <v>1</v>
@@ -26247,9 +25242,7 @@
       <c r="L508" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M508" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M508" s="3"/>
       <c r="N508" s="3"/>
       <c r="O508" t="b" s="4">
         <v>1</v>
@@ -26289,9 +25282,7 @@
       <c r="L509" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M509" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M509" s="3"/>
       <c r="N509" s="3"/>
       <c r="O509" t="b" s="4">
         <v>1</v>
@@ -26331,9 +25322,7 @@
       <c r="L510" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M510" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M510" s="3"/>
       <c r="N510" s="3"/>
       <c r="O510" t="b" s="4">
         <v>1</v>
@@ -26373,9 +25362,7 @@
       <c r="L511" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M511" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M511" s="3"/>
       <c r="N511" s="3"/>
       <c r="O511" t="b" s="4">
         <v>1</v>
@@ -26415,9 +25402,7 @@
       <c r="L512" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M512" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M512" s="3"/>
       <c r="N512" s="3"/>
       <c r="O512" t="b" s="4">
         <v>1</v>
@@ -26457,9 +25442,7 @@
       <c r="L513" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M513" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M513" s="3"/>
       <c r="N513" s="3"/>
       <c r="O513" t="b" s="4">
         <v>1</v>
@@ -26499,9 +25482,7 @@
       <c r="L514" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M514" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M514" s="3"/>
       <c r="N514" s="3"/>
       <c r="O514" t="b" s="4">
         <v>1</v>
@@ -26541,9 +25522,7 @@
       <c r="L515" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M515" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M515" s="3"/>
       <c r="N515" s="3"/>
       <c r="O515" t="b" s="4">
         <v>1</v>
@@ -26583,9 +25562,7 @@
       <c r="L516" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M516" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M516" s="3"/>
       <c r="N516" s="3"/>
       <c r="O516" t="b" s="4">
         <v>1</v>
@@ -26625,9 +25602,7 @@
       <c r="L517" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M517" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M517" s="3"/>
       <c r="N517" s="3"/>
       <c r="O517" t="b" s="4">
         <v>1</v>
@@ -26667,9 +25642,7 @@
       <c r="L518" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M518" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M518" s="3"/>
       <c r="N518" s="3"/>
       <c r="O518" t="b" s="4">
         <v>1</v>
@@ -26709,9 +25682,7 @@
       <c r="L519" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M519" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M519" s="3"/>
       <c r="N519" s="3"/>
       <c r="O519" t="b" s="4">
         <v>1</v>
@@ -26751,9 +25722,7 @@
       <c r="L520" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M520" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M520" s="3"/>
       <c r="N520" s="3"/>
       <c r="O520" t="b" s="4">
         <v>1</v>
@@ -26793,9 +25762,7 @@
       <c r="L521" t="b" s="4">
         <v>1</v>
       </c>
-      <c r="M521" t="b" s="4">
-        <v>1</v>
-      </c>
+      <c r="M521" s="3"/>
       <c r="N521" s="3"/>
       <c r="O521" t="b" s="4">
         <v>1</v>
